--- a/medicine/Pharmacie/Bruyère_cendrée/Bruyère_cendrée.xlsx
+++ b/medicine/Pharmacie/Bruyère_cendrée/Bruyère_cendrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bruy%C3%A8re_cendr%C3%A9e</t>
+          <t>Bruyère_cendrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erica cinerea
 La bruyère cendrée (Erica cinerea) est une espèce de plantes à fleurs de la famille des Ericaceae. C'est la plus commune des espèces de bruyères d'Europe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruy%C3%A8re_cendr%C3%A9e</t>
+          <t>Bruyère_cendrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle présente des fleurs rose pourpré, en grappes. Elle est commune dans les landes, en association avec la callune.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruy%C3%A8re_cendr%C3%A9e</t>
+          <t>Bruyère_cendrée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : rose
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bruy%C3%A8re_cendr%C3%A9e</t>
+          <t>Bruyère_cendrée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Habitat type : Landes atlantiques thermophiles
 Aire de répartition : atlantique</t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bruy%C3%A8re_cendr%C3%A9e</t>
+          <t>Bruyère_cendrée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est classée Espèce de préoccupation mineure (LC) par l'UICN. L'espèce n'est pas considérée comme étant menacée en France.
 Toutefois localement l'espèce peut se raréfier: elle est considérée comme en Danger-critique (CR) en Champagne-Ardennes.
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bruy%C3%A8re_cendr%C3%A9e</t>
+          <t>Bruyère_cendrée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,9 +665,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de bruyère est utilisée pour ses propriétés antiseptiques urinaires et diurétiques ainsi que pour éliminer l'excès d'acide urique. L'analyse de la plante a permis d'identifier l'agent thérapeutique principal: l'arbutine[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de bruyère est utilisée pour ses propriétés antiseptiques urinaires et diurétiques ainsi que pour éliminer l'excès d'acide urique. L'analyse de la plante a permis d'identifier l'agent thérapeutique principal: l'arbutine.
 </t>
         </is>
       </c>
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bruy%C3%A8re_cendr%C3%A9e</t>
+          <t>Bruyère_cendrée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,7 +698,9 @@
           <t>Quelques vues de la plante</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Détail.
@@ -691,7 +715,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bruy%C3%A8re_cendr%C3%A9e</t>
+          <t>Bruyère_cendrée</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,7 +733,9 @@
           <t>Plantes voisines</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à la bruyère ciliée (Erica ciliaris), le style de la fleur de la bruyère cendrée ne dépasse pas la corolle et les feuilles de la  bruyère cendrée sont glabres.
 </t>
